--- a/documentation-generator/vocab_csv/rules.xlsx
+++ b/documentation-generator/vocab_csv/rules.xlsx
@@ -71,7 +71,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>proposed</t>
+    <t>accepted</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit, Georg P Krog, Beatriz Esteves, Paul Ryan</t>
@@ -733,7 +733,9 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
         <v>19</v>
@@ -781,7 +783,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
         <v>19</v>
@@ -829,7 +833,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
@@ -877,7 +883,9 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
         <v>19</v>
@@ -3563,12 +3571,12 @@
       <c r="B883" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
@@ -3690,7 +3698,9 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L2" s="24"/>
       <c r="M2" s="10" t="s">
         <v>19</v>
@@ -3736,7 +3746,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
         <v>19</v>
@@ -3782,7 +3794,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
@@ -3828,7 +3842,9 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12">
+        <v>44853.0</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
         <v>19</v>
@@ -6783,18 +6799,28 @@
       <c r="C982" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B3 C2:D17 E2:E3 F2:F17 G2:AB3 A6:B17 E6:E17 G6:AB17">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="modified"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$M2="modified"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB300">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AB200">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B3 C2:D17 E2:E3 F2:F17 G2:AB3 A6:B17 E6:E17 G6:AB17">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:B3 C2:D17 E2:E3 F2:F17 G2:J3 K2:K17 L2:AB3 A6:B17 E6:E17 G6:J17 L6:AB17">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentation-generator/vocab_csv/rules.xlsx
+++ b/documentation-generator/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Term</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>dpv:Permission</t>
+  </si>
+  <si>
+    <t>dpv:hasRule</t>
   </si>
   <si>
     <t>hasProhibition</t>
@@ -3740,7 +3743,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3773,22 +3776,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3821,22 +3824,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
